--- a/ProyectoMaterias/ADA/Diagrama de Gantt.xlsx
+++ b/ProyectoMaterias/ADA/Diagrama de Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://animaeduuy-my.sharepoint.com/personal/alan_ferreira_anima_edu_uy/Documents/Proyecto/ADA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Documents\GitHub\BlindsTech\ProyectoMaterias\ADA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F21D86-6E83-4ED8-B13E-6D73560CD9C8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB01E89-C988-479C-84A4-38B0B06D7F3D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="APP CLIENTE" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,12 @@
     <sheet name="APP RPI" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179020"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Horas</t>
   </si>
@@ -79,7 +80,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -267,6 +268,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,7 +288,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -583,11 +586,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX16"/>
   <sheetViews>
-    <sheetView topLeftCell="CA1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="CJ13" sqref="CJ13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="BX14" sqref="BX14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
     <col min="2" max="22" width="3.28515625" customWidth="1"/>
@@ -595,7 +598,7 @@
     <col min="35" max="219" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -903,12 +906,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:102">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:102">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -923,7 +926,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:102">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -942,7 +945,7 @@
       <c r="N4" s="5"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:102">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -954,7 +957,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:102">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -966,7 +969,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:102">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -977,7 +980,7 @@
       <c r="M7" s="5"/>
       <c r="N7" s="6"/>
     </row>
-    <row r="8" spans="1:102">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -992,7 +995,7 @@
       <c r="J8" s="5"/>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:102">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1003,7 +1006,7 @@
       <c r="S9" s="8"/>
       <c r="T9" s="9"/>
     </row>
-    <row r="10" spans="1:102">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1037,7 +1040,7 @@
       <c r="AC10" s="5"/>
       <c r="AD10" s="6"/>
     </row>
-    <row r="11" spans="1:102">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1065,7 @@
       <c r="AW11" s="5"/>
       <c r="AX11" s="6"/>
     </row>
-    <row r="12" spans="1:102">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1073,7 +1076,7 @@
       <c r="BC12" s="8"/>
       <c r="BD12" s="9"/>
     </row>
-    <row r="13" spans="1:102">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1119,7 @@
       <c r="CI13" s="5"/>
       <c r="CJ13" s="6"/>
     </row>
-    <row r="14" spans="1:102">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1124,7 +1127,7 @@
       <c r="J14" s="5"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:102">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1132,7 +1135,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:102">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1154,17 +1157,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CU14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
     <col min="2" max="128" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" s="3" customFormat="1">
+    <row r="1" spans="1:99" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1463,12 +1466,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:99">
+    <row r="2" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:99">
+    <row r="3" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1480,7 +1483,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:99">
+    <row r="4" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1495,7 +1498,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:99">
+    <row r="5" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1510,7 +1513,7 @@
       <c r="T5" s="5"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:99">
+    <row r="6" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1528,7 @@
       <c r="T6" s="5"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:99">
+    <row r="7" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1537,7 +1540,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:99">
+    <row r="8" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1547,7 +1550,7 @@
       <c r="Y8" s="5"/>
       <c r="Z8" s="6"/>
     </row>
-    <row r="9" spans="1:99">
+    <row r="9" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="N9" s="5"/>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:99">
+    <row r="10" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1569,18 +1572,18 @@
       <c r="L10" s="5"/>
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="1:99">
+    <row r="11" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="1:99">
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="15"/>
+    </row>
+    <row r="12" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
     </row>
-    <row r="13" spans="1:99">
+    <row r="13" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1608,7 @@
       <c r="J13" s="5"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:99">
+    <row r="14" spans="1:99" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -1639,17 +1642,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:DX70"/>
   <sheetViews>
-    <sheetView topLeftCell="BI1" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="CP13" sqref="CP13"/>
+    <sheetView topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BZ10" sqref="BZ10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="115" width="3.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:128">
+    <row r="1" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1977,12 +1980,12 @@
       <c r="DW1" s="3"/>
       <c r="DX1" s="3"/>
     </row>
-    <row r="2" spans="1:128">
+    <row r="2" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:128">
+    <row r="3" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2004,7 +2007,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="6"/>
     </row>
-    <row r="4" spans="1:128">
+    <row r="4" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2019,7 @@
       <c r="X4" s="5"/>
       <c r="Y4" s="6"/>
     </row>
-    <row r="5" spans="1:128">
+    <row r="5" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2034,7 @@
       <c r="AH5" s="8"/>
       <c r="AI5" s="9"/>
     </row>
-    <row r="6" spans="1:128">
+    <row r="6" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2053,7 +2056,7 @@
       <c r="AH6" s="5"/>
       <c r="AI6" s="6"/>
     </row>
-    <row r="7" spans="1:128">
+    <row r="7" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="6"/>
     </row>
-    <row r="8" spans="1:128">
+    <row r="8" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2081,7 +2084,7 @@
       <c r="AF8" s="5"/>
       <c r="AG8" s="6"/>
     </row>
-    <row r="9" spans="1:128">
+    <row r="9" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -2114,14 +2117,15 @@
       <c r="BM9" s="5"/>
       <c r="BN9" s="5"/>
       <c r="BO9" s="5"/>
-      <c r="BP9" s="5"/>
-      <c r="BQ9" s="6"/>
-    </row>
-    <row r="10" spans="1:128">
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="15"/>
+    </row>
+    <row r="10" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BR10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="BR10" s="5"/>
       <c r="BS10" s="5"/>
       <c r="BT10" s="5"/>
       <c r="BU10" s="5"/>
@@ -2129,262 +2133,255 @@
       <c r="BW10" s="5"/>
       <c r="BX10" s="5"/>
       <c r="BY10" s="5"/>
-      <c r="BZ10" s="5"/>
-      <c r="CA10" s="6"/>
-    </row>
-    <row r="11" spans="1:128">
+      <c r="BZ10" s="6"/>
+    </row>
+    <row r="11" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="Z11" s="4"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="6"/>
-    </row>
-    <row r="12" spans="1:128">
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="15"/>
+    </row>
+    <row r="12" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-      <c r="AT12" s="5"/>
-      <c r="AU12" s="5"/>
-      <c r="AV12" s="5"/>
-      <c r="AW12" s="5"/>
-      <c r="AX12" s="5"/>
-      <c r="AY12" s="5"/>
-      <c r="AZ12" s="5"/>
-      <c r="BA12" s="5"/>
-      <c r="BB12" s="5"/>
-      <c r="BC12" s="5"/>
-      <c r="BD12" s="5"/>
-      <c r="BE12" s="5"/>
-      <c r="BF12" s="5"/>
-      <c r="BG12" s="5"/>
-      <c r="BH12" s="5"/>
-      <c r="BI12" s="5"/>
-      <c r="BJ12" s="5"/>
-      <c r="BK12" s="5"/>
-      <c r="BL12" s="6"/>
-    </row>
-    <row r="13" spans="1:128">
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="15"/>
+      <c r="AO12" s="15"/>
+      <c r="AP12" s="15"/>
+      <c r="AQ12" s="15"/>
+      <c r="AR12" s="15"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="15"/>
+      <c r="AU12" s="15"/>
+      <c r="AV12" s="15"/>
+      <c r="AW12" s="15"/>
+      <c r="AX12" s="15"/>
+      <c r="AY12" s="15"/>
+      <c r="AZ12" s="15"/>
+      <c r="BA12" s="15"/>
+      <c r="BB12" s="15"/>
+      <c r="BC12" s="15"/>
+      <c r="BD12" s="15"/>
+      <c r="BE12" s="15"/>
+      <c r="BF12" s="15"/>
+      <c r="BG12" s="15"/>
+      <c r="BH12" s="15"/>
+      <c r="BI12" s="15"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="15"/>
+      <c r="BL12" s="15"/>
+    </row>
+    <row r="13" spans="1:128" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="12"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="12"/>
+      <c r="AW13" s="12"/>
+      <c r="AX13" s="12"/>
+      <c r="AY13" s="12"/>
+      <c r="AZ13" s="12"/>
+      <c r="BA13" s="12"/>
+      <c r="BB13" s="12"/>
+      <c r="BC13" s="12"/>
+      <c r="BD13" s="12"/>
+      <c r="BE13" s="12"/>
+      <c r="BF13" s="12"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="12"/>
+      <c r="BI13" s="12"/>
+      <c r="BJ13" s="12"/>
+      <c r="BK13" s="12"/>
+      <c r="BL13" s="12"/>
+      <c r="BM13" s="12"/>
       <c r="BN13" s="12"/>
       <c r="BO13" s="12"/>
       <c r="BP13" s="12"/>
-      <c r="BQ13" s="12"/>
-      <c r="BR13" s="12"/>
-      <c r="BS13" s="12"/>
-      <c r="BT13" s="12"/>
-      <c r="BU13" s="12"/>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="12"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="12"/>
-      <c r="CA13" s="12"/>
-      <c r="CB13" s="12"/>
-      <c r="CC13" s="12"/>
-      <c r="CD13" s="12"/>
-      <c r="CE13" s="12"/>
-      <c r="CF13" s="12"/>
-      <c r="CG13" s="12"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="12"/>
-      <c r="CJ13" s="12"/>
-      <c r="CK13" s="12"/>
-      <c r="CL13" s="12"/>
-      <c r="CM13" s="12"/>
-      <c r="CN13" s="12"/>
-      <c r="CO13" s="12"/>
-      <c r="CP13" s="13"/>
-    </row>
-    <row r="14" spans="1:128">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:128">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:128">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="BQ13" s="13"/>
+    </row>
+    <row r="14" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+    </row>
+    <row r="15" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+    </row>
+    <row r="16" spans="1:128" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
     </row>
   </sheetData>
